--- a/Python/Class/2.2 BeautifulSoup撰写网页爬虫/news.xlsx
+++ b/Python/Class/2.2 BeautifulSoup撰写网页爬虫/news.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>title</t>
   </si>
@@ -59,16 +59,142 @@
     <t>http://news.qq.com/a/20160418/023091.htm</t>
   </si>
   <si>
-    <t>一文读懂SpaceX绕月飞行：日本富商成首位绕月旅客</t>
+    <t>俄国防部：俄军伊尔20系被叙军S200导弹击落 但错在以色列</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A16FCS.html</t>
+  </si>
+  <si>
+    <t>李锦莲案国家赔偿290余万元 其女儿表示将向最高法申请复议</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A154FN.html</t>
+  </si>
+  <si>
+    <t>微信香港钱包接入快速支付系统 将上线跨行转账等三大功能</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/20180918011624.html</t>
+  </si>
+  <si>
+    <t>谷雨 | 网络时代的新“套路” 盲人按摩师变身产品经理</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/CRI2018091801009500</t>
+  </si>
+  <si>
+    <t>实拍湖南一中学学生轮流上讲台砸手机 老师：自愿砸的</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/TWF2018091801161600</t>
+  </si>
+  <si>
+    <t>中投回应招聘“绍兴文理学院毕业生”质疑：不存在“萝卜招聘”</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0WPXO.html</t>
+  </si>
+  <si>
+    <t>方正证券对分析师马军、员工廖蕾停职并启动专项调查</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/zt/template/?id=STO2018091801037100</t>
+  </si>
+  <si>
+    <t>香港一大楼被台风蹂躏成马蜂窝 办公内景曝光宛如灾难现场</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/TWF2018091801136200</t>
+  </si>
+  <si>
+    <t>阿里巴巴：战略投资的资产当前价值800亿美元</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/20180918010399.html</t>
+  </si>
+  <si>
+    <t>环球时报：十年过去 美国股指怎就变成中国的十倍</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918B13SNC.html</t>
+  </si>
+  <si>
+    <t>南昌一幼儿园多名儿童流鼻血：家长质疑甲醛超标 官方责令停课</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/TWF2018091800951900</t>
+  </si>
+  <si>
+    <t>SpaceX首位环月乘客：和女星谈恋爱 花上亿美元买艺术品</t>
   </si>
   <si>
     <t>http://new.qq.com/zt/template/?id=TEC2018091405083600</t>
   </si>
   <si>
-    <t>方星海：目前股市状况不同于2015年 没看到散户强制平仓风险</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/zt/template/?id=FIN2018091700432500</t>
+    <t>格格二十年：理想就是做生意，变成大富豪</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180917/20180917A1QPXR.html</t>
+  </si>
+  <si>
+    <t>无罪！一审获刑7年的正厅书记再审改判</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0OXFN.html</t>
+  </si>
+  <si>
+    <t>日本女孩拍视频帮妈妈寻找中国亲人：母亲46年前被遗弃在火车上</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/TWF2018091800980700</t>
+  </si>
+  <si>
+    <t>珠江边的潜伏者！国安部门披露发生在广东的台湾间谍案</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/zt/template/?id=TWF2018091504114300</t>
+  </si>
+  <si>
+    <t>上海九部门联合重拳整治首付贷、违规提取公积金</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/zt/template/?id=FIN2018091310380500</t>
+  </si>
+  <si>
+    <t>噫！中关村，俺可想你哩</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180917/20180917B1IQZ5.html</t>
+  </si>
+  <si>
+    <t>网秦公司创始人林宇被指雇人盗取公司公章 已被警方带走调查</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/zt/template/?id=TEC2018091102672200</t>
+  </si>
+  <si>
+    <t>锵锵行天下丨推理小说女王阿加莎：一位喜欢在酒店开房创作的美女</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180917/20180917V1VKFD.html</t>
+  </si>
+  <si>
+    <t>在哪个城市可以有更好生活？北京深圳最具活力 广州最具生活气息</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918B0U6N0.html</t>
+  </si>
+  <si>
+    <t>“山竹”来了，号称吃啥都不怕的广东人暴露了软肋</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/zt/template/?id=FUD2018091800684900</t>
+  </si>
+  <si>
+    <t>辣生意：“自虐”与“上瘾”背后的机会</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0CKD4.html</t>
   </si>
   <si>
     <t>一线｜《了不起的麦瑟尔夫人》成艾美大赢家，《权游》获最佳剧集</t>
@@ -77,34 +203,34 @@
     <t>http://new.qq.com/zt/template/?id=TVS2018091700582600</t>
   </si>
   <si>
-    <t>台当局想“修法”挡大陆居住证 台商：有本事先查美国绿卡</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0MOCT.html</t>
-  </si>
-  <si>
-    <t>网秦公司创始人林宇被指雇人盗取公司公章 已被警方带走调查</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/zt/template/?id=TEC2018091102672200</t>
-  </si>
-  <si>
-    <t>美官员：载14人俄罗斯失联军机被叙利亚政府意外击落</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0CJ1W.html</t>
-  </si>
-  <si>
-    <t>美官员称俄在叙战机被击落后，叙政府军曾发射无线电搜救信号</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0NJWH.html</t>
-  </si>
-  <si>
-    <t>“山竹”正式退场！爬树也要上班的广东人留下哪些倔强？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/cmsn/20180918/TWF2018091800255900</t>
+    <t>华为轮值董事长胡厚��：2019年中期将推出首款华为5G手机</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0Y8RB.html</t>
+  </si>
+  <si>
+    <t>90后将房产作为财富追求目标？年轻人别让炒房意识困住</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0F1IX.html</t>
+  </si>
+  <si>
+    <t>名家签名书造假：汪曾祺的如果只卖几十几百元，造假的可能性极高</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0GJUO.html</t>
+  </si>
+  <si>
+    <t>“所谓人设就是做好自己”，这档节目才是体育综艺该有的样子</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918/20180918A0JL8M.html</t>
+  </si>
+  <si>
+    <t>今日话题 | 收视率造假骨子里是因为中国人缺少对数据的信仰</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/cmsn/20180918/20180918008465.html</t>
   </si>
   <si>
     <t>陌生人丨情场浪子撩妹三千 却说最受伤的是自己？</t>
@@ -113,463 +239,328 @@
     <t>http://new.qq.com/cmsn/20180918/20180918007436.html</t>
   </si>
   <si>
-    <t>锵锵行天下丨推理小说女王阿加莎：一位喜欢在酒店开房创作的美女</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917/20180917V1VKFD.html</t>
-  </si>
-  <si>
-    <t>吉林农安棚改强拆乱象调查：拆掉有证的，盖起没证的</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917/20180917A13NGU.html</t>
-  </si>
-  <si>
-    <t>中国游客被瑞典酒店逐客事件最新辟谣和全面分析</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/cmsn/20180918/20180918005323.html</t>
-  </si>
-  <si>
-    <t>《我就是演员》里陈凯歌的点评为什么瞬间圈粉？关注人的生存状态</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918B0KXQ4.html</t>
-  </si>
-  <si>
-    <t>成本上涨，今年月饼还吃得起吗？别担心，售价依旧走亲民路线</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/zt/template/?id=FUD2018091701288000</t>
-  </si>
-  <si>
-    <t>那个发论文署名总在学生后面的老院士走了</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917/20180917A1AWA4.html</t>
-  </si>
-  <si>
-    <t>量子纠缠针灸，中医创新别如此儿戏</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A03JQB.html</t>
-  </si>
-  <si>
-    <t>除了阳澄湖，中国还有这些大闸蟹产区值得关注</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180916/20180916A0ZRAT.html</t>
-  </si>
-  <si>
-    <t>赵薇晒与陈坤亲密照遭疯狂攻击，删除后再晒自拍安抚粉丝：有爱</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A037B0.html</t>
-  </si>
-  <si>
-    <t>八成数据泄漏因为内鬼：优质信息单条售价过万、电信诈骗照单全收</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0AJ6Y.html</t>
-  </si>
-  <si>
-    <t>全国好编剧不超过50人？优质编剧为何这么少</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A02EPM.html</t>
-  </si>
-  <si>
-    <t>中国皮蛋让英国白富美三观俱裂，她却从此爱上这枚东方神物</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180916/20180916A1CZ4G.html</t>
-  </si>
-  <si>
-    <t>部分大一新生攀比开学“装备”：最爱比衣服鞋帽、电子设备等</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918C0796Z.html</t>
-  </si>
-  <si>
-    <t>从日本到瑞典 中国外交官不该被“键盘侠”们一再误解</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0EQ0D.html</t>
-  </si>
-  <si>
-    <t>能读普高就别读职高？那仍在读着职高的是怎样的一群年轻人</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917/20180917A1MVM1.html</t>
-  </si>
-  <si>
-    <t>美国再收紧难民政策：明年可接纳难民人数降至3万人</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0EZ4R.html</t>
-  </si>
-  <si>
-    <t>“九一八”的警钟为何要长鸣？北大营的那一夜就是答案</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0AGWP.html</t>
-  </si>
-  <si>
-    <t>格朗西的黑白摄影：和八十年代的中国日常对话</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918/20180918A0HRG2.html</t>
-  </si>
-  <si>
-    <t>谷雨数据｜这35万抗战将士 每个中国人都要铭记！</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/cmsn/20180918/20180918001798.html</t>
-  </si>
-  <si>
-    <t>会计准则“掩护”打一折 上市银行自有房产真实市值或超7万亿元</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/cmsn/20180918/20180918000966.html</t>
-  </si>
-  <si>
-    <t>铭记九一八，向抗战老兵敬礼</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180815/20180815A0LWQ7.html</t>
-  </si>
-  <si>
-    <t>剑南春集团董事长乔天明受审</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NSJF.html</t>
-  </si>
-  <si>
-    <t>没得过的病竟出现在医保记录里，医保局回应</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NSDC.html</t>
-  </si>
-  <si>
-    <t>新时代改革开放的新使命是什么？这场重磅研讨会对发出了呼吁</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0MPIO.html</t>
-  </si>
-  <si>
-    <t>马克龙称“穿过马路”就能帮失业者找到工作 被指不知疾苦</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NJZ7.html</t>
-  </si>
-  <si>
-    <t>中秋国庆将至 中消协提醒警惕房地产“养老返利”</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NKUG.html</t>
-  </si>
-  <si>
-    <t>全国近4亿近视眼人数，市面上90%护眼灯不达标</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NE76.html</t>
-  </si>
-  <si>
-    <t>誉衡药业股权质押再遭强平  8月以来股价腰斩市值蒸发66亿</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NHQI.html</t>
-  </si>
-  <si>
-    <t>宝能减持万科押注汽车  230万辆规划产能遭质疑</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0NI2Q.html</t>
-  </si>
-  <si>
-    <t>商务部：将继续加大知识产权保护力度</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/007025.htm</t>
-  </si>
-  <si>
-    <t>下班后“工作微信”该不该回？答案来了！</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0MW63.html</t>
-  </si>
-  <si>
-    <t>一成首付重现江湖，最佳购房时机就是此刻？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0LFZ6.html</t>
-  </si>
-  <si>
-    <t>银保监会8月公布415张罚单 农商行仍为监管重地</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0LG4X.html</t>
-  </si>
-  <si>
-    <t>利源精制高铁谜梦：产能投资达中车22%，年需400亿订单支撑</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0KJGL.html</t>
-  </si>
-  <si>
-    <t>中国消费市场2018年遇拐点？多方建言收入分配改革</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/001617.htm</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/006489.htm</t>
-  </si>
-  <si>
-    <t>央行意外实施2650亿MLF，近期或将定向降准</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0KZ7D.html</t>
-  </si>
-  <si>
-    <t>长租公寓装配规范正在制定 明年上半年实行</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/006218.htm</t>
-  </si>
-  <si>
-    <t>杨涛：金融科技助力商业银行变革</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0K18S.html</t>
-  </si>
-  <si>
-    <t>法国无人机解决方案企业Delair宣布扩大在华业务</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0JYXS.html</t>
-  </si>
-  <si>
-    <t>青海首富资本运作生变：藏格控股收购巨龙铜业重大资产重组终止</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0JYJV.html</t>
-  </si>
-  <si>
-    <t>傅军：中国改革开放不该是四十年 应是五十年</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/006048.htm</t>
-  </si>
-  <si>
-    <t>最关键的云业务表现糟糕 甲骨文盘后大跌</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0JKGB.html</t>
-  </si>
-  <si>
-    <t>晨鑫科技“涉赌涉币”疑云：嘴上说没有 背后却急关网店</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0JBXU.html</t>
-  </si>
-  <si>
-    <t>波音公司生产延误，退休员工来帮忙</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0J4GG.html</t>
-  </si>
-  <si>
-    <t>赤星康：日企进中国主要看中其廉价劳动力</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005719.htm</t>
-  </si>
-  <si>
-    <t>SpaceX公布首位绕月飞行私人乘客：日本收藏家前�g友作</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0ITMA.html</t>
-  </si>
-  <si>
-    <t>可口可乐正开展一场史无前例的变革：进军大麻市场</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0EOTU.html</t>
-  </si>
-  <si>
-    <t>一线丨保利徐念沙：保利最大收获是学到互惠互利的商业规则</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005486.htm</t>
-  </si>
-  <si>
-    <t>上交所总经理蒋锋：将支持已上市的人工智能公司做强做大</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0HLV8.html</t>
-  </si>
-  <si>
-    <t>商业银行过招苹果手机分期：官网利率比拼胶着 手机银行打免息牌</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005446.htm</t>
-  </si>
-  <si>
-    <t>Carlo Papa：区块链等新的技术都能够带来新的机遇</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005479.htm</t>
-  </si>
-  <si>
-    <t>吉利冲刺新能源 未来三年上市30款新能源车</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0I3XS.html</t>
-  </si>
-  <si>
-    <t>28行首套房贷利率上浮30%，现在买房吃亏吗？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0ERS6.html</t>
-  </si>
-  <si>
-    <t>SpaceX：首位私人“环月旅行者”是来自日本的前�g友作</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0I19G.html</t>
-  </si>
-  <si>
-    <t>Ana Trbovich：建立区块链应用分享平台 实现商业化</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005294.htm</t>
-  </si>
-  <si>
-    <t>BBA新能源汽车大战：奔驰首款电动车被指电池技术落后</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005303.htm</t>
-  </si>
-  <si>
-    <t>滴滴42小时：平台、资本、舆论、监管多方角力，巨兽命运何如？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917B1MBRQ.html</t>
-  </si>
-  <si>
-    <t>徐念沙：80年代开展对外合作最重要的是学到了国际贸易规则</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/004849.htm</t>
-  </si>
-  <si>
-    <t>奇瑞迷局：卖卖卖节奏停不下来 欲剥离资产熬过寒冬?</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005125.htm</t>
-  </si>
-  <si>
-    <t>陈黎明：外企十分看重中国市场潜力 说垂涎三尺都不为过</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005143.htm</t>
-  </si>
-  <si>
-    <t>中行董事长陈四清:提升服务实体经济质效</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A02FXO.html</t>
-  </si>
-  <si>
-    <t>ABB集团董事长顾纯元：强调网络安全责任</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/005081.htm</t>
-  </si>
-  <si>
-    <t>中青报刊评嘀嗒出行宣传语：软色情网络营销令人作呕</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/004824.htm</t>
-  </si>
-  <si>
-    <t>全国半数地区个贷率超警戒线 多地收紧公积金政策</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/004910.htm</t>
-  </si>
-  <si>
-    <t>吉利高歌猛进正反面：零部件供应商指责其压价拖款</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/004864.htm</t>
-  </si>
-  <si>
-    <t>销量几近腰斩 海马汽车路在何方</t>
-  </si>
-  <si>
-    <t>http://finance.qq.com/a/20180918/004837.htm</t>
-  </si>
-  <si>
-    <t>拥有7.2亿美元比特币的“大金主”突然苏醒 数字货币“吓跌”</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0FV00.html</t>
-  </si>
-  <si>
-    <t>贵人鸟两年关店431家 跨界遇挫半年净利骤降七成</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0FVY8.html</t>
-  </si>
-  <si>
-    <t>哈罗单车更名哈��出行，联手申通地铁打造一体化智慧接驳</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0DL5G.html</t>
-  </si>
-  <si>
-    <t>专家呼吁：颁布20年的《价格法》该改改了</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0DLWY.html</t>
-  </si>
-  <si>
-    <t>老婆13年、经纪人8年、手机号17年，包贝尔自曝一直咬牙坚持</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0FKB6.html</t>
-  </si>
-  <si>
-    <t>金星称第一段婚姻是一场交易，前妻男友陪一起领证还甘愿做见证人</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A1UMT0.html</t>
-  </si>
-  <si>
-    <t>《如懿传》如懿怀孕，卫�魍癯没�迷惑皇上，如懿一招让她服服帖帖</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A211V8.html</t>
-  </si>
-  <si>
-    <t>60岁“穆念慈”拍戏烧伤面部，片场失火逾20人送医治疗</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0378F.html</t>
-  </si>
-  <si>
-    <t>已婚已育妇女杨幂狂“撩”华晨宇，算不算出格？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A21HX1.html</t>
-  </si>
-  <si>
-    <t>中戏表演班新生首次集体亮相，易烊千玺、胡先煦、李兰迪同框</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0D8ZZ.html</t>
+    <t>一线 | 维港投资创办人周凯旋谈投资策略：IA和AI为焦点</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/012009.htm</t>
+  </si>
+  <si>
+    <t>香港财政司司长：大湾区内可加强医疗科技合作</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011973.htm</t>
+  </si>
+  <si>
+    <t>央行再发文：常抓不懈 持续防范ICO和虚拟货币交易风险</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1DB0X.html</t>
+  </si>
+  <si>
+    <t>惠普实验室首席架构师：数据是企业的核心竞争力</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011851.htm</t>
+  </si>
+  <si>
+    <t>央行开展2000亿元逆回购操作</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011599.htm</t>
+  </si>
+  <si>
+    <t>携程发布新一轮高管任命 孙波升任CMO</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1B5FX.html</t>
+  </si>
+  <si>
+    <t>刘世锦：上市公司利润银行占一半 这说明金融业有问题</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011828.htm</t>
+  </si>
+  <si>
+    <t>“互联网女皇”出走KPCB，硅谷传奇VC跌下神坛</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1BOCF.html</t>
+  </si>
+  <si>
+    <t>中概股"疯狂一夜"后暴跌，拼多多趣头条蔚来汽车惊呆美国股市</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1B9LR.html</t>
+  </si>
+  <si>
+    <t>新一轮政策“组合拳”将加码稳投资</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011613.htm</t>
+  </si>
+  <si>
+    <t>国家发改委：切实加大关键领域和薄弱环节补短板力度</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1AEF8.html</t>
+  </si>
+  <si>
+    <t>比尔・盖茨：人口激增阻碍非洲减贫，本世纪末或增加30亿人</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1A9P0.html</t>
+  </si>
+  <si>
+    <t>欧盟委员会官员：中国金融开放还需要提高 对欧盟开放规模较小</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011580.htm</t>
+  </si>
+  <si>
+    <t>视觉AI免费平台开放有望破解“高门槛”窘境 千亿市场待爆发</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180917A0RZ7I.html</t>
+  </si>
+  <si>
+    <t>大局已定！1 秒，下载一部电影！你期待的5G真要来了...</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0XJJJ.html</t>
+  </si>
+  <si>
+    <t>各银行存款利率连跌2个月！你银行存款真的安全吗？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A123Q1.html</t>
+  </si>
+  <si>
+    <t>吴文辉：短期价格波动不是重点 阅文希望成为像漫威那样的公司</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A18HZ9.html</t>
+  </si>
+  <si>
+    <t>备受关注的趣头条真实估值到底是多少？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A18K5V.html</t>
+  </si>
+  <si>
+    <t>大基建板块强势引爆，A股绝地反击收获放量中阳</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A17W36.html</t>
+  </si>
+  <si>
+    <t>Pinos Pont：数据能够帮助医师缩短治疗周期</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010889.htm</t>
+  </si>
+  <si>
+    <t>卡内基梅隆：机器人是一个生物 机器不会取代人类</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011054.htm</t>
+  </si>
+  <si>
+    <t>万科集团副总裁刘肖：外部环境因素对创业起到非常重要的作用</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011057.htm</t>
+  </si>
+  <si>
+    <t>Ryu Jung-Hee：城市应该有自己魅力 不是一味去复制</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011163.htm</t>
+  </si>
+  <si>
+    <t>卡内基梅隆：科技会让就业机会越来越多</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011165.htm</t>
+  </si>
+  <si>
+    <t>中俄亮剑美元后，8大石油国或“叫停”石油美元，靠近原油人民币</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16I2P.html</t>
+  </si>
+  <si>
+    <t>马云称“绝大部分P2P在做非法金融服务”，这是真的吗？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A17EBO.html</t>
+  </si>
+  <si>
+    <t>发改委：力争再新开工一批重大项目 保持交通基础设施建设稳定</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/011053.htm</t>
+  </si>
+  <si>
+    <t>学了三年的高铁乘务 竟是个“假专业”！谁来负责</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A17OCB.html</t>
+  </si>
+  <si>
+    <t>聘请新管理层为新收购兜底 哈药股份业绩能否就此扭转</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16LUP.html</t>
+  </si>
+  <si>
+    <t>李小加：投资生物科技板块要有“马拉松”意识</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16RCH.html</t>
+  </si>
+  <si>
+    <t>全球AI巨头同台“飙戏”！马云马化腾等精华语录“泄露天机”</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15S50.html</t>
+  </si>
+  <si>
+    <t>再开“战场”！美国要在这一领域追赶中国</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A149RY.html</t>
+  </si>
+  <si>
+    <t>《图画楼市》：一图看懂北京市住房公积金新政</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010107.htm</t>
+  </si>
+  <si>
+    <t>SpaceX首位绕月旅客曝光！他还要邀请多名艺术家同行</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0Y8N1.html</t>
+  </si>
+  <si>
+    <t>大局已定？梅姨这一次很强硬：脱欧，我说了算！</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1400O.html</t>
+  </si>
+  <si>
+    <t>钟正生：融资供需错配仍在，警惕民企抽贷</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15QNW.html</t>
+  </si>
+  <si>
+    <t>国元证券子公司终止参股国元农村人寿</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15UBI.html</t>
+  </si>
+  <si>
+    <t>Jay Flatley：基因技术进步能让数百万人受益</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010746.htm</t>
+  </si>
+  <si>
+    <t>北京消协检测50款床上用品超4成不合格</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15KVN.html</t>
+  </si>
+  <si>
+    <t>香港财政司司长陈茂波：大湾区成功最重要的因素是政策上的突破</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010559.htm</t>
+  </si>
+  <si>
+    <t>你有钱你咋不上天？好，这就去！</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A151ZS.html</t>
+  </si>
+  <si>
+    <t>证监会接收湖北和远气体的上市材料</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14LVE.html</t>
+  </si>
+  <si>
+    <t>清华大学朱宁：整个大湾区应设置一个共同的大目标</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010634.htm</t>
+  </si>
+  <si>
+    <t>宗庆后表示“不收工薪阶层个税，消费才拉的起来”，你同意吗？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14ZJ1.html</t>
+  </si>
+  <si>
+    <t>一线 | 人工智能的全球对话：机遇与挑战均无处不在</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010608.htm</t>
+  </si>
+  <si>
+    <t>发改委：积极推进混合所有制改革试点企业员工持股</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010569.htm</t>
+  </si>
+  <si>
+    <t>多省近期大力抓投资：补短板项目集中开工、积极吸引民资加入</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A13VBX.html</t>
+  </si>
+  <si>
+    <t>发改委：前8月固定资产投资增长5.3%</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A147NF.html</t>
+  </si>
+  <si>
+    <t>中国国际问题研究院院长戚振宏：为世界和平发展贡献“中国力量”</t>
+  </si>
+  <si>
+    <t>http://finance.qq.com/a/20180918/010528.htm</t>
+  </si>
+  <si>
+    <t>李亚男晒美食照被网友吐槽：孕妇喝黑咖啡流产概率超高</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16D1C.html</t>
+  </si>
+  <si>
+    <t>韩女星具荷拉被男友家暴，素颜现身警局调查，满身伤痕双目无神</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A11A90.html</t>
+  </si>
+  <si>
+    <t>小龙女吴卓林订婚后首现身，与未婚妻Andi 提款机前取钱</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15UQ0.html</t>
+  </si>
+  <si>
+    <t>钱枫节目相亲对象被网友骂惨，回怼：我就是那个又丑又作的作女</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0SE7O.html</t>
+  </si>
+  <si>
+    <t>明星也改行！TVB花旦朱千雪退出娱乐圈做律师，成律界大神</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0LV81.html</t>
   </si>
   <si>
     <t>网友偶遇董卿商场买童装，打扮朴素十分接地气</t>
@@ -578,208 +569,208 @@
     <t>http://new.qq.com/omn/20180918A0HR9F.html</t>
   </si>
   <si>
-    <t>网友偶遇秦岚米兰逛街 断码区挑选商品自带温柔滤镜</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A21FU8.html</t>
-  </si>
-  <si>
-    <t>刘美彤《斗破苍穹》接任族长  倔强落泪初见成长</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A001XP.html</t>
-  </si>
-  <si>
-    <t>《如懿传》如懿怀孕，魏�魍袢没实酆嚷寡�四妃侍寝，将如懿气晕</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0JNYU.html</t>
-  </si>
-  <si>
-    <t>程莉莎主动表白老外，郭晓冬看到只说了一句话，夫妻关系一目了然</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0KPEJ.html</t>
-  </si>
-  <si>
-    <t>高能！史上被杀次数最多的女演员，一出场就吓尿几百人</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0KT7W.html</t>
-  </si>
-  <si>
-    <t>欧弟陪老婆坐月子蠢事多总被赶回家，护士笑场：没见过你们这样的</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A15ZPH.html</t>
-  </si>
-  <si>
-    <t>一线｜《还珠格格》又双����翻拍了 琼瑶还要当顾问</t>
-  </si>
-  <si>
-    <t>http://ent.qq.com/a/20180917/014007.htm</t>
-  </si>
-  <si>
-    <t>风口浪尖的《娘道》，究竟是“老封建”还是“反封建”？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0HV36.html</t>
-  </si>
-  <si>
-    <t>90后最爱的7部电影，你错过了几部？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0I31K.html</t>
-  </si>
-  <si>
-    <t>易烊千玺代表新生于开学典礼发言 网友“格局很大”</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0IPMJ.html</t>
-  </si>
-  <si>
-    <t>几次刷爆热搜的国综，周末躺着看超爽</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0IVZO.html</t>
-  </si>
-  <si>
-    <t>张艺谋等伙伴齐聚 腾讯影业公布六大文化系列逾40个项目进展</t>
-  </si>
-  <si>
-    <t>http://ent.qq.com/a/20180918/004848.htm</t>
-  </si>
-  <si>
-    <t>如懿传：纯贵妃挑拨，嘉贵妃遭围攻，一个举动却暴露了如懿的弱点</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0GMNK.html</t>
-  </si>
-  <si>
-    <t>Baby现身闹区拍戏引现场混乱，一路剧本不离手被赞敬业</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0GV0A.html</t>
-  </si>
-  <si>
-    <t>董子健出席腾讯影业发布会 为新戏健身显成效</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A02AX4.html</t>
-  </si>
-  <si>
-    <t>《江湖儿女》不是怀旧，是活在当下</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0GIMS.html</t>
-  </si>
-  <si>
-    <t>关之琳迎56岁生日，钟镇涛为冻龄女神庆生，自弹自唱交情匪浅</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0FYQH.html</t>
-  </si>
-  <si>
-    <t>鹿晗给关晓彤送祝福，男方粉丝女方粉丝的态度截然不同</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0G1BL.html</t>
-  </si>
-  <si>
-    <t>一线｜独家：友人谈自杀女演员沈丽君 8年豪门婚姻把她全毁了</t>
-  </si>
-  <si>
-    <t>http://ent.qq.com/a/20180917/012751.htm</t>
-  </si>
-  <si>
-    <t>郭敬明与魁梧保镖同框，左手大戒指闪亮抢镜</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0CW7V.html</t>
-  </si>
-  <si>
-    <t>香港名武打女星、83经典版《射雕》穆念慈拍戏烧伤，面部伤明显</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0BC01.html</t>
-  </si>
-  <si>
-    <t>43岁的钟汉良还要来出演偶像剧男主角，这次让人想吐槽</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0C37G.html</t>
-  </si>
-  <si>
-    <t>男神朱一龙新剧即将播出，剧中的他风度翩翩迷倒众生</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0CK87.html</t>
-  </si>
-  <si>
-    <t>来世再相遇，我仍会爱上他并渡过狼狈的一生</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180918A0CNPO.html</t>
-  </si>
-  <si>
-    <t>获奖名单持续更新：《权力的游戏》小恶魔获剧情类剧集最佳男配角</t>
-  </si>
-  <si>
-    <t>http://ent.qq.com/a/20180918/002928.htm</t>
-  </si>
-  <si>
-    <t>曾让毛宁杨钰莹红遍大江南北，如今再次北上的他最怕90后听不懂</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A1J1ND.html</t>
-  </si>
-  <si>
-    <t>鹿晗为关晓彤庆生粉丝卑微可怜自己找虐？粉丝发声明辟谣维护名誉</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A20W86.html</t>
-  </si>
-  <si>
-    <t>出身草根家庭，患抑郁症8年的TVB男星，47岁成北大硕士</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A1COJ7.html</t>
-  </si>
-  <si>
-    <t>从只身北漂遇黑中介到双十亿女主，她这一路的经历就是部励志史</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A20S56.html</t>
-  </si>
-  <si>
-    <t>她曾与张默谈恋爱被打，如今在《如懿传》演反派却圈粉无数</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A20BW3.html</t>
-  </si>
-  <si>
-    <t>票补时代终结，将对行业产生哪些影响？</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A20C4D.html</t>
-  </si>
-  <si>
-    <t>贾樟柯：“江湖”就是人情</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A20CRB.html</t>
-  </si>
-  <si>
-    <t>和男友家暴互殴，还被对方打到子宫出血？这个90后妹子真惨</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A21B7X.html</t>
-  </si>
-  <si>
-    <t>豆瓣9.1，前一秒惊吓，后一秒爆笑</t>
-  </si>
-  <si>
-    <t>http://new.qq.com/omn/20180917A21LDB.html</t>
+    <t>姚笛与未婚夫现身公开撒狗粮，温柔搂小蛮腰羡煞旁人</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0R56V.html</t>
+  </si>
+  <si>
+    <t>于正曾邀邬君梅拍戏，疑因被拒评其造型是老鸨，网友：恼羞成怒</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0MAN5.html</t>
+  </si>
+  <si>
+    <t>小恶魔第三次获艾美奖最佳男配，相比身高他充满了力量</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A17061.html</t>
+  </si>
+  <si>
+    <t>吴映洁摸嘉宾腹肌，Mike的举动让鬼鬼不舒服，何炅的做法贴心</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A18Q7T.html</t>
+  </si>
+  <si>
+    <t>马伊�P称事业家庭难平衡，自曝晚上八点半必须回家，网友：好女人</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A19RPZ.html</t>
+  </si>
+  <si>
+    <t>国漫再现神剧，豆瓣评分8.9，仙侠迷们有福了</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A18JHE.html</t>
+  </si>
+  <si>
+    <t>恭喜！英国演员“卷福”妻子怀上三胎，两人此前已有两个儿子</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0Y75O.html</t>
+  </si>
+  <si>
+    <t>熊黛林首晒女儿正面照，网友：本年度最漂亮的大眼娃</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A13FL6.html</t>
+  </si>
+  <si>
+    <t>朱旭老先生终和爱妻合葬，他们才是真正感动半个世纪的爱情</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15NDD.html</t>
+  </si>
+  <si>
+    <t>56岁关之琳庆生，肤白貌美状态极佳，被调侃越来越像蔡明了</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15OUP.html</t>
+  </si>
+  <si>
+    <t>56岁关之琳晒庆生照，略微有些发福，但皮肤状态超好</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A15RYL.html</t>
+  </si>
+  <si>
+    <t>凉生橙红播出首日，收视率竟被一部豆瓣评分3.5的剧集力压？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16NKX.html</t>
+  </si>
+  <si>
+    <t>《亲爱的客栈2》路透来了，刘涛王珂夫妇合体温馨又浪漫</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16RG8.html</t>
+  </si>
+  <si>
+    <t>提到应采儿Jasper异常开心，陈小春吃醋，他的这一句话亮了</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A171GY.html</t>
+  </si>
+  <si>
+    <t>“穆念慈”杨盼盼确认为三级烧伤 女儿代报平安</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A16AIA.html</t>
+  </si>
+  <si>
+    <t>甄子丹和妻子汪诗诗外出游玩，甜蜜合影越来越有夫妻相</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0TKD8.html</t>
+  </si>
+  <si>
+    <t>具荷拉男友否认殴打女方：子宫出血验伤单是假</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0OSD1.html</t>
+  </si>
+  <si>
+    <t>鬼鬼的性格很可爱，对何炅的专属昵称很宠溺，他俩的友情一目了然</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A145VP.html</t>
+  </si>
+  <si>
+    <t>张艺谋首曝新片选角内幕，直言因邓超才会选择孙俪</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14UTY.html</t>
+  </si>
+  <si>
+    <t>马伊�P首谈婚姻变故：爱情就是冲动，谁敢保证你一辈子不犯错误</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14XLW.html</t>
+  </si>
+  <si>
+    <t>好莱坞男星10周狂减36斤，喝水度日咖啡止饿瘦到肋骨根根分明</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14Y9N.html</t>
+  </si>
+  <si>
+    <t>贾斯汀比伯准岳父遭美媒痛批：为2.7亿财产嫁21岁女儿</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A0PHPZ.html</t>
+  </si>
+  <si>
+    <t>应采儿狂怼程莉莎，有谁注意到程莉莎的反应了？网友：塑料姐妹</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A13ORH.html</t>
+  </si>
+  <si>
+    <t>罗家英剧组拍戏突发火灾，60岁武打女星被喷汽油左脸多处烧伤</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A14CS7.html</t>
+  </si>
+  <si>
+    <t>具荷拉现身接受调查，面色惨白紧抿双唇，原来伤口比想象的多</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A13952.html</t>
+  </si>
+  <si>
+    <t>赵薇和陈坤合照被翻陈年旧事，娱乐圈沉浮不能改变高情厚谊</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A1062X.html</t>
+  </si>
+  <si>
+    <t>阿娇与赖弘国伦敦狂撒狗粮，网友竟纷纷恭喜她怀孕？</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A130GI.html</t>
+  </si>
+  <si>
+    <t>当袁姗姗、周冬雨同穿工装裤，终于知道什么叫小个子也有春天了</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A131R3.html</t>
+  </si>
+  <si>
+    <t>“江湖儿女”贾樟柯：有且不仅只有这五个关键词</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A11HE6.html</t>
+  </si>
+  <si>
+    <t>被各国疯狂翻拍的世界第一初恋，羞耻到不行</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A120ZM.html</t>
+  </si>
+  <si>
+    <t>潘玮柏发福过度认不出，网友：我觉得这是韩红啊</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A124U5.html</t>
+  </si>
+  <si>
+    <t>酒吧里唱起陈小春的歌，有谁注意到应采儿的反应？颖儿太耿直了</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A125UV.html</t>
+  </si>
+  <si>
+    <t>媒体批评肯达尔詹娜走秀太少，她霸气回应：从不靠这个混饭吃</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A127P1.html</t>
+  </si>
+  <si>
+    <t>杨紫新剧将播？男主比邓伦更有魅力，看着非常养眼</t>
+  </si>
+  <si>
+    <t>http://new.qq.com/omn/20180918A12EXO.html</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,10 +1690,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1710,10 +1701,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1721,10 +1712,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1732,10 +1723,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1743,10 +1734,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1754,10 +1745,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1765,10 +1756,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1776,10 +1767,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1787,10 +1778,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1798,10 +1789,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1809,10 +1800,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1820,10 +1811,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1831,10 +1822,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1842,10 +1833,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1853,10 +1844,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1864,10 +1855,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1875,10 +1866,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1886,10 +1877,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1897,10 +1888,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1908,10 +1899,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1919,10 +1910,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1930,10 +1921,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1941,10 +1932,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1952,10 +1943,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1963,10 +1954,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1974,10 +1965,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1985,10 +1976,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1996,10 +1987,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2007,10 +1998,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2018,10 +2009,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2029,10 +2020,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2040,10 +2031,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2051,10 +2042,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2062,10 +2053,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2073,10 +2064,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2084,10 +2075,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2095,10 +2086,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2106,10 +2097,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2117,10 +2108,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2128,10 +2119,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2139,10 +2130,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2150,10 +2141,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2161,10 +2152,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2172,10 +2163,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2183,10 +2174,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2194,10 +2185,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2205,10 +2196,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2216,10 +2207,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C99" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2227,10 +2218,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2238,10 +2229,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2249,10 +2240,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2260,10 +2251,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2271,10 +2262,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2282,10 +2273,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2293,10 +2284,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2304,10 +2295,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2315,10 +2306,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2326,10 +2317,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2337,10 +2328,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2348,10 +2339,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2359,10 +2350,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2370,10 +2361,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2381,10 +2372,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2392,10 +2383,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2403,10 +2394,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2414,10 +2405,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2425,10 +2416,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2436,10 +2427,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2447,10 +2438,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2458,10 +2449,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2469,10 +2460,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2480,10 +2471,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2491,10 +2482,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2502,10 +2493,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2513,32 +2504,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
         <v>251</v>
-      </c>
-      <c r="C127" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
-      </c>
-      <c r="C128" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
